--- a/data/pca/factorExposure/factorExposure_2016-02-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.007420671268991794</v>
+        <v>0.01305140686435176</v>
       </c>
       <c r="C2">
-        <v>0.05056616926293423</v>
+        <v>0.04223100316559399</v>
       </c>
       <c r="D2">
-        <v>-0.08375265892759777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.09822653133279238</v>
+      </c>
+      <c r="E2">
+        <v>0.1158493278572649</v>
+      </c>
+      <c r="F2">
+        <v>0.02308647645010181</v>
+      </c>
+      <c r="G2">
+        <v>-0.03479018723740492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02673845370005702</v>
+        <v>0.01650269546571945</v>
       </c>
       <c r="C3">
-        <v>0.1037348109923066</v>
+        <v>0.05123333885048013</v>
       </c>
       <c r="D3">
-        <v>-0.1112015944250091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08056683169730446</v>
+      </c>
+      <c r="E3">
+        <v>0.1077612070407722</v>
+      </c>
+      <c r="F3">
+        <v>-0.05157800310730386</v>
+      </c>
+      <c r="G3">
+        <v>-0.08867907169100861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06022733290867267</v>
+        <v>0.06099626401339004</v>
       </c>
       <c r="C4">
-        <v>0.06686013443746144</v>
+        <v>0.06651837781687002</v>
       </c>
       <c r="D4">
-        <v>-0.08434867281891732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1083112776408361</v>
+      </c>
+      <c r="E4">
+        <v>0.08425868080379077</v>
+      </c>
+      <c r="F4">
+        <v>-0.03011481064584675</v>
+      </c>
+      <c r="G4">
+        <v>0.03757301381521293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04390925881554934</v>
+        <v>0.04076570003934131</v>
       </c>
       <c r="C6">
-        <v>0.0429859213118813</v>
+        <v>0.03074438907848602</v>
       </c>
       <c r="D6">
-        <v>-0.08172158884205435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1051318609886742</v>
+      </c>
+      <c r="E6">
+        <v>0.07416861929749591</v>
+      </c>
+      <c r="F6">
+        <v>-0.02081122334657615</v>
+      </c>
+      <c r="G6">
+        <v>-0.003906991705188504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02891965461942606</v>
+        <v>0.02172799241295259</v>
       </c>
       <c r="C7">
-        <v>0.03956875049282169</v>
+        <v>0.03814753613967842</v>
       </c>
       <c r="D7">
-        <v>-0.05628595726592705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.07633427989605396</v>
+      </c>
+      <c r="E7">
+        <v>0.06593864353495897</v>
+      </c>
+      <c r="F7">
+        <v>-0.02296937492877676</v>
+      </c>
+      <c r="G7">
+        <v>0.05457305392283681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.007829190022100046</v>
+        <v>0.006588603291477331</v>
       </c>
       <c r="C8">
-        <v>0.04851839061189353</v>
+        <v>0.04103743278888178</v>
       </c>
       <c r="D8">
-        <v>-0.05575004358022569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.06724010814999458</v>
+      </c>
+      <c r="E8">
+        <v>0.05112845112545372</v>
+      </c>
+      <c r="F8">
+        <v>-0.01690170770264518</v>
+      </c>
+      <c r="G8">
+        <v>-0.008672363529309578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04105220189530483</v>
+        <v>0.04359241443536127</v>
       </c>
       <c r="C9">
-        <v>0.05048373446187285</v>
+        <v>0.0557767078593884</v>
       </c>
       <c r="D9">
-        <v>-0.07147079166566916</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0935672093824654</v>
+      </c>
+      <c r="E9">
+        <v>0.06463234653735614</v>
+      </c>
+      <c r="F9">
+        <v>-0.007675007603706479</v>
+      </c>
+      <c r="G9">
+        <v>0.03997149887863401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08899978714935623</v>
+        <v>0.1131658306352231</v>
       </c>
       <c r="C10">
-        <v>-0.1825137359418228</v>
+        <v>-0.1942566756337292</v>
       </c>
       <c r="D10">
-        <v>9.401416895926284e-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0121092013729945</v>
+      </c>
+      <c r="E10">
+        <v>0.05179456304474007</v>
+      </c>
+      <c r="F10">
+        <v>-0.01393811268289982</v>
+      </c>
+      <c r="G10">
+        <v>0.03258043184964523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04216115468616222</v>
+        <v>0.03548710335371617</v>
       </c>
       <c r="C11">
-        <v>0.05249097717665626</v>
+        <v>0.04760970085867351</v>
       </c>
       <c r="D11">
-        <v>-0.04366642765015388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0510286945993666</v>
+      </c>
+      <c r="E11">
+        <v>0.02871777394433134</v>
+      </c>
+      <c r="F11">
+        <v>-0.01170640310448343</v>
+      </c>
+      <c r="G11">
+        <v>0.04041431982822073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04563102143195316</v>
+        <v>0.03805250458506508</v>
       </c>
       <c r="C12">
-        <v>0.04911894962053176</v>
+        <v>0.04677619520405007</v>
       </c>
       <c r="D12">
-        <v>-0.02860477825799238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04471935038802121</v>
+      </c>
+      <c r="E12">
+        <v>0.04011913887540591</v>
+      </c>
+      <c r="F12">
+        <v>-0.005523246601892818</v>
+      </c>
+      <c r="G12">
+        <v>0.03747032904567221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01600128501197517</v>
+        <v>0.0166501251171485</v>
       </c>
       <c r="C13">
-        <v>0.05560942438165364</v>
+        <v>0.04473459587463164</v>
       </c>
       <c r="D13">
-        <v>-0.0676813143672942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1020986675965612</v>
+      </c>
+      <c r="E13">
+        <v>0.1109617531949157</v>
+      </c>
+      <c r="F13">
+        <v>-0.02745744536853467</v>
+      </c>
+      <c r="G13">
+        <v>0.04553732734020577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01427450125565656</v>
+        <v>0.007848021978123896</v>
       </c>
       <c r="C14">
-        <v>0.03410223012237699</v>
+        <v>0.03048968628265234</v>
       </c>
       <c r="D14">
-        <v>-0.03922063051488157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.06101279351475381</v>
+      </c>
+      <c r="E14">
+        <v>0.07095537975656124</v>
+      </c>
+      <c r="F14">
+        <v>0.003208586897819203</v>
+      </c>
+      <c r="G14">
+        <v>0.03571848033425704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0004664341882929074</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.007044218403871805</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.016749536306278</v>
+      </c>
+      <c r="E15">
+        <v>0.00760839962493983</v>
+      </c>
+      <c r="F15">
+        <v>0.001297767102104523</v>
+      </c>
+      <c r="G15">
+        <v>-0.002659034629639988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04167932538236537</v>
+        <v>0.03518201001092012</v>
       </c>
       <c r="C16">
-        <v>0.05186983813662798</v>
+        <v>0.0469163931162095</v>
       </c>
       <c r="D16">
-        <v>-0.03637015397055714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05058909672352419</v>
+      </c>
+      <c r="E16">
+        <v>0.04213437020681462</v>
+      </c>
+      <c r="F16">
+        <v>0.004962078214293223</v>
+      </c>
+      <c r="G16">
+        <v>0.03227201779943488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01953515991160876</v>
+        <v>0.01419361411891384</v>
       </c>
       <c r="C19">
-        <v>0.05620247883810905</v>
+        <v>0.03901628323703398</v>
       </c>
       <c r="D19">
-        <v>-0.1234615739625312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1163400772281014</v>
+      </c>
+      <c r="E19">
+        <v>0.1126851051703709</v>
+      </c>
+      <c r="F19">
+        <v>0.01682579185478589</v>
+      </c>
+      <c r="G19">
+        <v>0.002790055541641172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02059191983431953</v>
+        <v>0.01635548180626031</v>
       </c>
       <c r="C20">
-        <v>0.05117951998331446</v>
+        <v>0.04184553059395155</v>
       </c>
       <c r="D20">
-        <v>-0.05602435864263423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07411340510991403</v>
+      </c>
+      <c r="E20">
+        <v>0.08420158942816161</v>
+      </c>
+      <c r="F20">
+        <v>-0.004167304432320766</v>
+      </c>
+      <c r="G20">
+        <v>0.02243592036805618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01709945927602592</v>
+        <v>0.01414853850012426</v>
       </c>
       <c r="C21">
-        <v>0.05910980572804634</v>
+        <v>0.04618572188601767</v>
       </c>
       <c r="D21">
-        <v>-0.07108690853258534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1030131752867719</v>
+      </c>
+      <c r="E21">
+        <v>0.139821567769562</v>
+      </c>
+      <c r="F21">
+        <v>0.007501998195443949</v>
+      </c>
+      <c r="G21">
+        <v>0.06584655267117716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.001099979074544479</v>
+        <v>0.004937710103409415</v>
       </c>
       <c r="C22">
-        <v>0.0126045080359092</v>
+        <v>0.03199725672105776</v>
       </c>
       <c r="D22">
-        <v>-0.03881619481920957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.09023591527750588</v>
+      </c>
+      <c r="E22">
+        <v>0.05461172084880739</v>
+      </c>
+      <c r="F22">
+        <v>-0.0694601487170141</v>
+      </c>
+      <c r="G22">
+        <v>-0.05322322881989221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.001113016331799916</v>
+        <v>0.005063714190324694</v>
       </c>
       <c r="C23">
-        <v>0.01255590469613796</v>
+        <v>0.03208164843380218</v>
       </c>
       <c r="D23">
-        <v>-0.03860534414945251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0895676704017416</v>
+      </c>
+      <c r="E23">
+        <v>0.05492219676811858</v>
+      </c>
+      <c r="F23">
+        <v>-0.06952978771914725</v>
+      </c>
+      <c r="G23">
+        <v>-0.05244423224834786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03873862401315528</v>
+        <v>0.03633174370066026</v>
       </c>
       <c r="C24">
-        <v>0.053059447074791</v>
+        <v>0.0555294047545991</v>
       </c>
       <c r="D24">
-        <v>-0.04180619455802099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05370142223038306</v>
+      </c>
+      <c r="E24">
+        <v>0.04421315555064732</v>
+      </c>
+      <c r="F24">
+        <v>0.001904571457312892</v>
+      </c>
+      <c r="G24">
+        <v>0.0482580661864615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04834284265451682</v>
+        <v>0.04233659307154838</v>
       </c>
       <c r="C25">
-        <v>0.05829811109622703</v>
+        <v>0.05527741627323593</v>
       </c>
       <c r="D25">
-        <v>-0.03951489060185229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.04953440113116267</v>
+      </c>
+      <c r="E25">
+        <v>0.03843307569059951</v>
+      </c>
+      <c r="F25">
+        <v>-0.01456592873699695</v>
+      </c>
+      <c r="G25">
+        <v>0.04942910708743216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02244175973804395</v>
+        <v>0.01884148702597493</v>
       </c>
       <c r="C26">
-        <v>0.02013903483531411</v>
+        <v>0.02016636361579817</v>
       </c>
       <c r="D26">
-        <v>-0.03801978895357416</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.05590501190878223</v>
+      </c>
+      <c r="E26">
+        <v>0.0528637001877041</v>
+      </c>
+      <c r="F26">
+        <v>0.007126252663889801</v>
+      </c>
+      <c r="G26">
+        <v>0.01049232853087134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1159271233858545</v>
+        <v>0.1571752536339441</v>
       </c>
       <c r="C28">
-        <v>-0.2568021312742619</v>
+        <v>-0.2539596699283463</v>
       </c>
       <c r="D28">
-        <v>0.03522572787446848</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0265172015427853</v>
+      </c>
+      <c r="E28">
+        <v>0.08601027110868856</v>
+      </c>
+      <c r="F28">
+        <v>-0.006946234865001671</v>
+      </c>
+      <c r="G28">
+        <v>0.07286575029385607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009450626263016111</v>
+        <v>0.007160463658229554</v>
       </c>
       <c r="C29">
-        <v>0.03173220397707494</v>
+        <v>0.02868264763432119</v>
       </c>
       <c r="D29">
-        <v>-0.02817390864273699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.05509912608139375</v>
+      </c>
+      <c r="E29">
+        <v>0.06983330710096691</v>
+      </c>
+      <c r="F29">
+        <v>-0.007893909255314635</v>
+      </c>
+      <c r="G29">
+        <v>0.04329800944310161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03930956692616926</v>
+        <v>0.04081782930502107</v>
       </c>
       <c r="C30">
-        <v>0.04257287467072119</v>
+        <v>0.05527067667340161</v>
       </c>
       <c r="D30">
-        <v>-0.1240285909776755</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1517260785382182</v>
+      </c>
+      <c r="E30">
+        <v>0.08036250755667551</v>
+      </c>
+      <c r="F30">
+        <v>0.003209694539263223</v>
+      </c>
+      <c r="G30">
+        <v>-0.020251633003006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06856409544523415</v>
+        <v>0.0634546343118053</v>
       </c>
       <c r="C31">
-        <v>0.06416662078101928</v>
+        <v>0.07085447522447154</v>
       </c>
       <c r="D31">
-        <v>-0.01600760403767382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03273121866293573</v>
+      </c>
+      <c r="E31">
+        <v>0.06460056985044216</v>
+      </c>
+      <c r="F31">
+        <v>-0.04722616517139587</v>
+      </c>
+      <c r="G31">
+        <v>0.03014060706030358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005970578308545904</v>
+        <v>0.003081392454640223</v>
       </c>
       <c r="C32">
-        <v>0.02540235927866057</v>
+        <v>0.02894428112843098</v>
       </c>
       <c r="D32">
-        <v>-0.05073196501538006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06798681286519677</v>
+      </c>
+      <c r="E32">
+        <v>0.109778322854707</v>
+      </c>
+      <c r="F32">
+        <v>0.01415386337216599</v>
+      </c>
+      <c r="G32">
+        <v>0.06471416992861652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03201989419833082</v>
+        <v>0.02699287328441466</v>
       </c>
       <c r="C33">
-        <v>0.05200618714092624</v>
+        <v>0.04887404012791994</v>
       </c>
       <c r="D33">
-        <v>-0.09243807450211898</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1118553999403462</v>
+      </c>
+      <c r="E33">
+        <v>0.08884953795883449</v>
+      </c>
+      <c r="F33">
+        <v>-0.02188389609423327</v>
+      </c>
+      <c r="G33">
+        <v>0.04186913770344593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04267263124122418</v>
+        <v>0.0376597983538663</v>
       </c>
       <c r="C34">
-        <v>0.06622277528722079</v>
+        <v>0.06419831052265376</v>
       </c>
       <c r="D34">
-        <v>-0.0571555703883552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05830949846557116</v>
+      </c>
+      <c r="E34">
+        <v>0.02171910470180065</v>
+      </c>
+      <c r="F34">
+        <v>0.0003053265969694253</v>
+      </c>
+      <c r="G34">
+        <v>0.05126320728409872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3.205661528356006e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0006941241866404765</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0005666572572694305</v>
+      </c>
+      <c r="E35">
+        <v>-0.0007108709356810249</v>
+      </c>
+      <c r="F35">
+        <v>0.0001053958130761011</v>
+      </c>
+      <c r="G35">
+        <v>4.549944110214015e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02405945953576431</v>
+        <v>0.01943038843723587</v>
       </c>
       <c r="C36">
-        <v>0.02039381285839175</v>
+        <v>0.01660824777639846</v>
       </c>
       <c r="D36">
-        <v>-0.03329857354308902</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0579545512688917</v>
+      </c>
+      <c r="E36">
+        <v>0.06444474487234743</v>
+      </c>
+      <c r="F36">
+        <v>-0.005563071533570727</v>
+      </c>
+      <c r="G36">
+        <v>0.03226503148661854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03471200329182476</v>
+        <v>0.02562156205414963</v>
       </c>
       <c r="C38">
-        <v>0.03627638495448884</v>
+        <v>0.02646699958392471</v>
       </c>
       <c r="D38">
-        <v>-0.0177813116911527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.04755275992827276</v>
+      </c>
+      <c r="E38">
+        <v>0.05080272118755667</v>
+      </c>
+      <c r="F38">
+        <v>-0.006138822978725094</v>
+      </c>
+      <c r="G38">
+        <v>-0.01404204307528118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04905084231743447</v>
+        <v>0.04204854527453637</v>
       </c>
       <c r="C39">
-        <v>0.06349618622335676</v>
+        <v>0.06295715228767468</v>
       </c>
       <c r="D39">
-        <v>-0.06248780367868303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.08528508597579262</v>
+      </c>
+      <c r="E39">
+        <v>0.04562295727910392</v>
+      </c>
+      <c r="F39">
+        <v>0.02031400470882668</v>
+      </c>
+      <c r="G39">
+        <v>0.03421160060620199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0109919832283473</v>
+        <v>0.01428373089467309</v>
       </c>
       <c r="C40">
-        <v>0.06192321128432308</v>
+        <v>0.04470277240214813</v>
       </c>
       <c r="D40">
-        <v>-0.05017329764867957</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.07191368751529596</v>
+      </c>
+      <c r="E40">
+        <v>0.1058036036532827</v>
+      </c>
+      <c r="F40">
+        <v>-0.04595813327449935</v>
+      </c>
+      <c r="G40">
+        <v>0.02148151746565771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02750560431430015</v>
+        <v>0.02226399007166372</v>
       </c>
       <c r="C41">
-        <v>0.01261084978096948</v>
+        <v>0.01007714003505044</v>
       </c>
       <c r="D41">
-        <v>-0.02939420338692033</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03894283259112329</v>
+      </c>
+      <c r="E41">
+        <v>0.07399233832238294</v>
+      </c>
+      <c r="F41">
+        <v>-0.008829634526776875</v>
+      </c>
+      <c r="G41">
+        <v>0.02334175096199152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04887149226940336</v>
+        <v>0.03307740592554708</v>
       </c>
       <c r="C43">
-        <v>0.03389857244794833</v>
+        <v>0.02384060435764069</v>
       </c>
       <c r="D43">
-        <v>-0.06288546146760039</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07228360068156654</v>
+      </c>
+      <c r="E43">
+        <v>0.07389061932228078</v>
+      </c>
+      <c r="F43">
+        <v>-0.03041437772231626</v>
+      </c>
+      <c r="G43">
+        <v>0.03444208156271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01510213609785729</v>
+        <v>0.01785640058923375</v>
       </c>
       <c r="C44">
-        <v>0.06795505615492516</v>
+        <v>0.04936098340079054</v>
       </c>
       <c r="D44">
-        <v>-0.04298856150537016</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07245679335404141</v>
+      </c>
+      <c r="E44">
+        <v>0.09684891801587024</v>
+      </c>
+      <c r="F44">
+        <v>0.009426937720270106</v>
+      </c>
+      <c r="G44">
+        <v>0.02985317561117559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01696956721392441</v>
+        <v>0.01500059200640535</v>
       </c>
       <c r="C46">
-        <v>0.03327658402670328</v>
+        <v>0.03298105967808023</v>
       </c>
       <c r="D46">
-        <v>-0.02762069973229223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.05410251366847279</v>
+      </c>
+      <c r="E46">
+        <v>0.07795953490155333</v>
+      </c>
+      <c r="F46">
+        <v>0.008747201038521765</v>
+      </c>
+      <c r="G46">
+        <v>0.06028005217733385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09316011029665705</v>
+        <v>0.09315347693794057</v>
       </c>
       <c r="C47">
-        <v>0.08500942216668186</v>
+        <v>0.08971671927822761</v>
       </c>
       <c r="D47">
-        <v>0.007111808218881995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009487870728982941</v>
+      </c>
+      <c r="E47">
+        <v>0.05498317967496147</v>
+      </c>
+      <c r="F47">
+        <v>-0.03260804087780022</v>
+      </c>
+      <c r="G47">
+        <v>0.06247400250072502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02866766530327209</v>
+        <v>0.02266264187318402</v>
       </c>
       <c r="C48">
-        <v>0.02349439341989909</v>
+        <v>0.0221499248297898</v>
       </c>
       <c r="D48">
-        <v>-0.02482070581921486</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05344555467756758</v>
+      </c>
+      <c r="E48">
+        <v>0.07693104351157228</v>
+      </c>
+      <c r="F48">
+        <v>0.001789757945807371</v>
+      </c>
+      <c r="G48">
+        <v>0.03831132104408826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08618611533060316</v>
+        <v>0.07342773291646838</v>
       </c>
       <c r="C50">
-        <v>0.101218743781581</v>
+        <v>0.08110370713587403</v>
       </c>
       <c r="D50">
-        <v>-0.0053720543014502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03434084909880043</v>
+      </c>
+      <c r="E50">
+        <v>0.07517701204276832</v>
+      </c>
+      <c r="F50">
+        <v>-0.05277296895744062</v>
+      </c>
+      <c r="G50">
+        <v>0.01484855996528097</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01547122342740388</v>
+        <v>0.01252535653756177</v>
       </c>
       <c r="C51">
-        <v>0.0435204255102345</v>
+        <v>0.02679592263037646</v>
       </c>
       <c r="D51">
-        <v>-0.0851048989487246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08635405677153218</v>
+      </c>
+      <c r="E51">
+        <v>0.05722757185396056</v>
+      </c>
+      <c r="F51">
+        <v>0.006153363291306173</v>
+      </c>
+      <c r="G51">
+        <v>0.0123216768294393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08174992922720754</v>
+        <v>0.09696447921018062</v>
       </c>
       <c r="C53">
-        <v>0.09317080406702584</v>
+        <v>0.09672367403805178</v>
       </c>
       <c r="D53">
-        <v>0.03135559202147761</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02861634133461716</v>
+      </c>
+      <c r="E53">
+        <v>0.09300486706105987</v>
+      </c>
+      <c r="F53">
+        <v>-0.03193140882946077</v>
+      </c>
+      <c r="G53">
+        <v>0.07790801951567164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.04128059913882344</v>
+        <v>0.03195148170276119</v>
       </c>
       <c r="C54">
-        <v>0.03467818535995283</v>
+        <v>0.03250327818623173</v>
       </c>
       <c r="D54">
-        <v>-0.0401712223626028</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.06439155635436744</v>
+      </c>
+      <c r="E54">
+        <v>0.07510715548390277</v>
+      </c>
+      <c r="F54">
+        <v>0.00401874876013981</v>
+      </c>
+      <c r="G54">
+        <v>0.03800721107482733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08611317715266754</v>
+        <v>0.09344263800592222</v>
       </c>
       <c r="C55">
-        <v>0.07045886102007243</v>
+        <v>0.07825684451572282</v>
       </c>
       <c r="D55">
-        <v>0.03190155041442982</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02955799217485799</v>
+      </c>
+      <c r="E55">
+        <v>0.05238191112552821</v>
+      </c>
+      <c r="F55">
+        <v>-0.03458644648715171</v>
+      </c>
+      <c r="G55">
+        <v>0.03401044223027509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1448695866826099</v>
+        <v>0.1496219571868474</v>
       </c>
       <c r="C56">
-        <v>0.1030105441213205</v>
+        <v>0.1140913912021338</v>
       </c>
       <c r="D56">
-        <v>0.03502448417231686</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03643832236446812</v>
+      </c>
+      <c r="E56">
+        <v>0.04648187581772154</v>
+      </c>
+      <c r="F56">
+        <v>-0.02662413826384249</v>
+      </c>
+      <c r="G56">
+        <v>0.04649056008475611</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04889338662310121</v>
+        <v>0.03884456416321497</v>
       </c>
       <c r="C58">
-        <v>-0.001267437065692872</v>
+        <v>0.01560928891047328</v>
       </c>
       <c r="D58">
-        <v>-0.3380565668739186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3361425422327704</v>
+      </c>
+      <c r="E58">
+        <v>0.2783051059245194</v>
+      </c>
+      <c r="F58">
+        <v>-0.1255137000271595</v>
+      </c>
+      <c r="G58">
+        <v>-0.500824107177542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1394394306958896</v>
+        <v>0.1537833702827219</v>
       </c>
       <c r="C59">
-        <v>-0.2020748029547736</v>
+        <v>-0.186947628682169</v>
       </c>
       <c r="D59">
-        <v>-0.01889906888167828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03446010548271487</v>
+      </c>
+      <c r="E59">
+        <v>0.03034644457653427</v>
+      </c>
+      <c r="F59">
+        <v>0.0306643318169607</v>
+      </c>
+      <c r="G59">
+        <v>-0.01523433287753194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2560772639081573</v>
+        <v>0.239654206617063</v>
       </c>
       <c r="C60">
-        <v>0.0675552819461485</v>
+        <v>0.077288808685961</v>
       </c>
       <c r="D60">
-        <v>-0.189329167594875</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.179462956829593</v>
+      </c>
+      <c r="E60">
+        <v>-0.3011958158218581</v>
+      </c>
+      <c r="F60">
+        <v>-0.09228440027056202</v>
+      </c>
+      <c r="G60">
+        <v>-0.01510170194229949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04911831725115214</v>
+        <v>0.04461707335852898</v>
       </c>
       <c r="C61">
-        <v>0.05726687362476628</v>
+        <v>0.05665278197438443</v>
       </c>
       <c r="D61">
-        <v>-0.0644196043159305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.07456407681570788</v>
+      </c>
+      <c r="E61">
+        <v>0.04834245086834053</v>
+      </c>
+      <c r="F61">
+        <v>0.0009151305206363996</v>
+      </c>
+      <c r="G61">
+        <v>0.0477991580894979</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01744305853810169</v>
+        <v>0.0175972331427468</v>
       </c>
       <c r="C63">
-        <v>0.03189203645239406</v>
+        <v>0.02942748667950344</v>
       </c>
       <c r="D63">
-        <v>-0.01561716829949331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.04933051810805786</v>
+      </c>
+      <c r="E63">
+        <v>0.07489072153147081</v>
+      </c>
+      <c r="F63">
+        <v>-0.02702847604463195</v>
+      </c>
+      <c r="G63">
+        <v>0.02160865149840046</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05610182958653502</v>
+        <v>0.05840047634165176</v>
       </c>
       <c r="C64">
-        <v>0.05468159636029836</v>
+        <v>0.06766475314321235</v>
       </c>
       <c r="D64">
-        <v>-0.04520696069419856</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04366652350235353</v>
+      </c>
+      <c r="E64">
+        <v>0.04191246018429973</v>
+      </c>
+      <c r="F64">
+        <v>0.01881634862504064</v>
+      </c>
+      <c r="G64">
+        <v>0.07465834492057971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07232095552687105</v>
+        <v>0.05998549780395959</v>
       </c>
       <c r="C65">
-        <v>0.02891236193608212</v>
+        <v>0.02549242792874291</v>
       </c>
       <c r="D65">
-        <v>-0.08908802394205297</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1149607935958703</v>
+      </c>
+      <c r="E65">
+        <v>0.03351978343464678</v>
+      </c>
+      <c r="F65">
+        <v>-0.0272586750195896</v>
+      </c>
+      <c r="G65">
+        <v>-0.03770390083357212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05788627528768946</v>
+        <v>0.0517965130944636</v>
       </c>
       <c r="C66">
-        <v>0.06905862172644529</v>
+        <v>0.07137734027916719</v>
       </c>
       <c r="D66">
-        <v>-0.08461550575507702</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1059565115590186</v>
+      </c>
+      <c r="E66">
+        <v>0.05409737768355385</v>
+      </c>
+      <c r="F66">
+        <v>-0.00161074257719431</v>
+      </c>
+      <c r="G66">
+        <v>0.02532888555872536</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05466543012344917</v>
+        <v>0.0444317288555789</v>
       </c>
       <c r="C67">
-        <v>0.03765534694331012</v>
+        <v>0.03005550752268171</v>
       </c>
       <c r="D67">
-        <v>-0.001016824634862352</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01938530432667511</v>
+      </c>
+      <c r="E67">
+        <v>0.02533268713937233</v>
+      </c>
+      <c r="F67">
+        <v>-0.006368599697801873</v>
+      </c>
+      <c r="G67">
+        <v>-0.006486097219832565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1496458520383986</v>
+        <v>0.1651494865704012</v>
       </c>
       <c r="C68">
-        <v>-0.2741171095371756</v>
+        <v>-0.2339130510246358</v>
       </c>
       <c r="D68">
-        <v>0.04481930512332771</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01305869519077602</v>
+      </c>
+      <c r="E68">
+        <v>0.05952036662483932</v>
+      </c>
+      <c r="F68">
+        <v>-0.02657127572666028</v>
+      </c>
+      <c r="G68">
+        <v>-0.0119978692883484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09445036710849158</v>
+        <v>0.08874143262062163</v>
       </c>
       <c r="C69">
-        <v>0.09760432989326488</v>
+        <v>0.1027496128268294</v>
       </c>
       <c r="D69">
-        <v>-0.0002203926388966788</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02561065158194746</v>
+      </c>
+      <c r="E69">
+        <v>0.05631420303847746</v>
+      </c>
+      <c r="F69">
+        <v>-0.01132751964562227</v>
+      </c>
+      <c r="G69">
+        <v>0.05594828735922692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1350241234530671</v>
+        <v>0.1577325779769314</v>
       </c>
       <c r="C71">
-        <v>-0.2507030737514787</v>
+        <v>-0.2337270341527452</v>
       </c>
       <c r="D71">
-        <v>-0.002174425666356197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01247448830440441</v>
+      </c>
+      <c r="E71">
+        <v>0.06937795065050172</v>
+      </c>
+      <c r="F71">
+        <v>-0.03057653834611184</v>
+      </c>
+      <c r="G71">
+        <v>0.05302071641125701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09830738123225331</v>
+        <v>0.1037417436725316</v>
       </c>
       <c r="C72">
-        <v>0.06368734595506503</v>
+        <v>0.05895645357421826</v>
       </c>
       <c r="D72">
-        <v>-0.05811858202297066</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07760973908216554</v>
+      </c>
+      <c r="E72">
+        <v>0.01808356204598552</v>
+      </c>
+      <c r="F72">
+        <v>-0.03026019380039626</v>
+      </c>
+      <c r="G72">
+        <v>0.05361488751344039</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3354244775534119</v>
+        <v>0.2932080337133386</v>
       </c>
       <c r="C73">
-        <v>-0.008641941122968993</v>
+        <v>0.03820654457226232</v>
       </c>
       <c r="D73">
-        <v>-0.4558035947828466</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3785139208770588</v>
+      </c>
+      <c r="E73">
+        <v>-0.6198336937457954</v>
+      </c>
+      <c r="F73">
+        <v>-0.09406035437734225</v>
+      </c>
+      <c r="G73">
+        <v>-0.06495296638456004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09962455022430323</v>
+        <v>0.1064595090622753</v>
       </c>
       <c r="C74">
-        <v>0.09441181724389039</v>
+        <v>0.09343754657492892</v>
       </c>
       <c r="D74">
-        <v>0.01662876611578744</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02909291449470592</v>
+      </c>
+      <c r="E74">
+        <v>0.07013930506195833</v>
+      </c>
+      <c r="F74">
+        <v>-0.05065101932692121</v>
+      </c>
+      <c r="G74">
+        <v>0.03220118461590856</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2515472685987524</v>
+        <v>0.2538400719046882</v>
       </c>
       <c r="C75">
-        <v>0.123985053310404</v>
+        <v>0.1427409125686291</v>
       </c>
       <c r="D75">
-        <v>0.1367626928176795</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1425555337735619</v>
+      </c>
+      <c r="E75">
+        <v>0.03947019647641782</v>
+      </c>
+      <c r="F75">
+        <v>0.003228733063606907</v>
+      </c>
+      <c r="G75">
+        <v>0.03008931021092457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1140390448089429</v>
+        <v>0.1277455339871579</v>
       </c>
       <c r="C76">
-        <v>0.1025930070307104</v>
+        <v>0.1038895109604358</v>
       </c>
       <c r="D76">
-        <v>0.0470596975897199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04573764827973528</v>
+      </c>
+      <c r="E76">
+        <v>0.1029073458168916</v>
+      </c>
+      <c r="F76">
+        <v>-0.01251808921916894</v>
+      </c>
+      <c r="G76">
+        <v>0.04543341631919634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0855810810194073</v>
+        <v>0.0678183155759641</v>
       </c>
       <c r="C77">
-        <v>0.03844118120350453</v>
+        <v>0.06314850640928166</v>
       </c>
       <c r="D77">
-        <v>-0.08948800137498632</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1094364903607623</v>
+      </c>
+      <c r="E77">
+        <v>0.1127962595902501</v>
+      </c>
+      <c r="F77">
+        <v>0.2514315618372504</v>
+      </c>
+      <c r="G77">
+        <v>-0.1434437635053457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04313284880494241</v>
+        <v>0.04479877127980744</v>
       </c>
       <c r="C78">
-        <v>0.03916542762037215</v>
+        <v>0.05611606395173256</v>
       </c>
       <c r="D78">
-        <v>-0.07924788646735959</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1086394842937051</v>
+      </c>
+      <c r="E78">
+        <v>0.05435387859047611</v>
+      </c>
+      <c r="F78">
+        <v>-0.0008610745132015442</v>
+      </c>
+      <c r="G78">
+        <v>0.03928124623894549</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001872174918492752</v>
+        <v>0.0381092647515468</v>
       </c>
       <c r="C79">
-        <v>-0.001721109560125143</v>
+        <v>0.06265170103165026</v>
       </c>
       <c r="D79">
-        <v>-0.009228891870546412</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06879358338919694</v>
+      </c>
+      <c r="E79">
+        <v>0.09656415159007901</v>
+      </c>
+      <c r="F79">
+        <v>-0.0552863000338358</v>
+      </c>
+      <c r="G79">
+        <v>0.2941399904140801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03361087403991073</v>
+        <v>0.02853800527334051</v>
       </c>
       <c r="C80">
-        <v>0.04054264652421986</v>
+        <v>0.04283122072278397</v>
       </c>
       <c r="D80">
-        <v>-0.03364203841500515</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03959103524969656</v>
+      </c>
+      <c r="E80">
+        <v>0.01695828618688375</v>
+      </c>
+      <c r="F80">
+        <v>0.04790603784819419</v>
+      </c>
+      <c r="G80">
+        <v>-0.008671824111888831</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.149203836354088</v>
+        <v>0.14210915151931</v>
       </c>
       <c r="C81">
-        <v>0.105963389535533</v>
+        <v>0.1108237552718559</v>
       </c>
       <c r="D81">
-        <v>0.09708481870839163</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09893015018668543</v>
+      </c>
+      <c r="E81">
+        <v>0.08232338645510599</v>
+      </c>
+      <c r="F81">
+        <v>-0.0133878533659243</v>
+      </c>
+      <c r="G81">
+        <v>0.0394519150302912</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2290118783919855</v>
+        <v>0.2419511001186998</v>
       </c>
       <c r="C82">
-        <v>0.1576306263435345</v>
+        <v>0.2018293361259396</v>
       </c>
       <c r="D82">
-        <v>0.1689971356384574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.225674776013998</v>
+      </c>
+      <c r="E82">
+        <v>-0.08202220053525223</v>
+      </c>
+      <c r="F82">
+        <v>0.0474311567944523</v>
+      </c>
+      <c r="G82">
+        <v>0.3632860352533921</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04018934482545831</v>
+        <v>0.02665329391272731</v>
       </c>
       <c r="C83">
-        <v>0.04173366510118003</v>
+        <v>0.05017642434043868</v>
       </c>
       <c r="D83">
-        <v>-0.06761868296838622</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04573525735623305</v>
+      </c>
+      <c r="E83">
+        <v>0.01550249338710454</v>
+      </c>
+      <c r="F83">
+        <v>0.02111957847352383</v>
+      </c>
+      <c r="G83">
+        <v>-0.003382567919661375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-2.368441415582391e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002779608834805531</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001964723990234596</v>
+      </c>
+      <c r="E84">
+        <v>0.008433191881232812</v>
+      </c>
+      <c r="F84">
+        <v>-0.003121775782604664</v>
+      </c>
+      <c r="G84">
+        <v>-0.007802702656820542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1947958667439855</v>
+        <v>0.1838466229693464</v>
       </c>
       <c r="C85">
-        <v>0.1065779143350553</v>
+        <v>0.1168183716540524</v>
       </c>
       <c r="D85">
-        <v>0.1308118380116782</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1183951170951855</v>
+      </c>
+      <c r="E85">
+        <v>0.02712911376518939</v>
+      </c>
+      <c r="F85">
+        <v>-0.04587703369626667</v>
+      </c>
+      <c r="G85">
+        <v>0.0835161924802869</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01282948040163351</v>
+        <v>0.01630277543898541</v>
       </c>
       <c r="C86">
-        <v>0.03229303868154094</v>
+        <v>0.01849465476809024</v>
       </c>
       <c r="D86">
-        <v>-0.1106142038478086</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1014204889251885</v>
+      </c>
+      <c r="E86">
+        <v>0.06689727259478204</v>
+      </c>
+      <c r="F86">
+        <v>0.01110498931115453</v>
+      </c>
+      <c r="G86">
+        <v>0.04393303428020926</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03458244731792273</v>
+        <v>0.03419856909530629</v>
       </c>
       <c r="C87">
-        <v>-0.001104075593508217</v>
+        <v>0.01692625275881158</v>
       </c>
       <c r="D87">
-        <v>-0.1059318222372852</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1283266411532809</v>
+      </c>
+      <c r="E87">
+        <v>0.1112786047803987</v>
+      </c>
+      <c r="F87">
+        <v>0.05308922798839695</v>
+      </c>
+      <c r="G87">
+        <v>-0.0327101170387627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1031106695548424</v>
+        <v>0.0886122781553197</v>
       </c>
       <c r="C88">
-        <v>0.08125999506139346</v>
+        <v>0.06396055895830305</v>
       </c>
       <c r="D88">
-        <v>0.0007936247185735941</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01855842602689998</v>
+      </c>
+      <c r="E88">
+        <v>0.05818221805923605</v>
+      </c>
+      <c r="F88">
+        <v>-0.02021469376105122</v>
+      </c>
+      <c r="G88">
+        <v>0.04359835020730282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2099665685438623</v>
+        <v>0.2373392905723254</v>
       </c>
       <c r="C89">
-        <v>-0.3571906872928047</v>
+        <v>-0.368606444262065</v>
       </c>
       <c r="D89">
-        <v>0.06023078058654233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01887727207053539</v>
+      </c>
+      <c r="E89">
+        <v>0.1004334267878404</v>
+      </c>
+      <c r="F89">
+        <v>0.06165024163972896</v>
+      </c>
+      <c r="G89">
+        <v>0.03818069855516105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1998886440175358</v>
+        <v>0.2147905611694548</v>
       </c>
       <c r="C90">
-        <v>-0.303083853354778</v>
+        <v>-0.2898261617664707</v>
       </c>
       <c r="D90">
-        <v>0.03852644307021283</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.001656693092319554</v>
+      </c>
+      <c r="E90">
+        <v>0.0615469548967137</v>
+      </c>
+      <c r="F90">
+        <v>-0.01014210390404127</v>
+      </c>
+      <c r="G90">
+        <v>-0.01585791946452568</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1897577086421512</v>
+        <v>0.1839905795384542</v>
       </c>
       <c r="C91">
-        <v>0.1596962352342723</v>
+        <v>0.1614316349182008</v>
       </c>
       <c r="D91">
-        <v>0.1029187747242667</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1075385701667102</v>
+      </c>
+      <c r="E91">
+        <v>0.06512449189507598</v>
+      </c>
+      <c r="F91">
+        <v>-0.02239293155830603</v>
+      </c>
+      <c r="G91">
+        <v>0.03671148925510118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1841017888595472</v>
+        <v>0.1964553075273998</v>
       </c>
       <c r="C92">
-        <v>-0.252469730168363</v>
+        <v>-0.2753228328315788</v>
       </c>
       <c r="D92">
-        <v>-0.00890211793075916</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.007899761918366464</v>
+      </c>
+      <c r="E92">
+        <v>0.08897558241817859</v>
+      </c>
+      <c r="F92">
+        <v>0.03315293043176593</v>
+      </c>
+      <c r="G92">
+        <v>0.0290787749203573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2217739134042204</v>
+        <v>0.2347436439244989</v>
       </c>
       <c r="C93">
-        <v>-0.3175755107203259</v>
+        <v>-0.3043447111732606</v>
       </c>
       <c r="D93">
-        <v>0.04508128776400962</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01882960507380489</v>
+      </c>
+      <c r="E93">
+        <v>0.04346676634476518</v>
+      </c>
+      <c r="F93">
+        <v>-0.02771947319361853</v>
+      </c>
+      <c r="G93">
+        <v>0.03215746880075298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3607136351158998</v>
+        <v>0.3451811633308689</v>
       </c>
       <c r="C94">
-        <v>0.2106621052656763</v>
+        <v>0.2164920766585271</v>
       </c>
       <c r="D94">
-        <v>0.5042985480401997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4454874959420095</v>
+      </c>
+      <c r="E94">
+        <v>0.009229167149631757</v>
+      </c>
+      <c r="F94">
+        <v>0.07170701938135167</v>
+      </c>
+      <c r="G94">
+        <v>-0.6121946411126046</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08952380395201802</v>
+        <v>0.06562212977246962</v>
       </c>
       <c r="C95">
-        <v>-0.0003794376907180852</v>
+        <v>0.03672956792728534</v>
       </c>
       <c r="D95">
-        <v>-0.1620739005626946</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1493572651065253</v>
+      </c>
+      <c r="E95">
+        <v>-0.05219610522880827</v>
+      </c>
+      <c r="F95">
+        <v>0.9127291415079933</v>
+      </c>
+      <c r="G95">
+        <v>0.02432991829539995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1797955514629599</v>
+        <v>0.1785925195757059</v>
       </c>
       <c r="C98">
-        <v>0.01092153786028443</v>
+        <v>0.04245538426405546</v>
       </c>
       <c r="D98">
-        <v>-0.2202048524756993</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1967478755016845</v>
+      </c>
+      <c r="E98">
+        <v>-0.2369220953558117</v>
+      </c>
+      <c r="F98">
+        <v>-0.077155877134611</v>
+      </c>
+      <c r="G98">
+        <v>0.01469602832049849</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009319949478196345</v>
+        <v>0.007275658967160238</v>
       </c>
       <c r="C101">
-        <v>0.03113352157200224</v>
+        <v>0.02782061101153077</v>
       </c>
       <c r="D101">
-        <v>-0.02798391142749054</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.05496448555375267</v>
+      </c>
+      <c r="E101">
+        <v>0.07084195007227728</v>
+      </c>
+      <c r="F101">
+        <v>-0.006933304884591559</v>
+      </c>
+      <c r="G101">
+        <v>0.04386880997180271</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1186133147730342</v>
+        <v>0.1192546185906405</v>
       </c>
       <c r="C102">
-        <v>0.08350275941307203</v>
+        <v>0.1103175712884285</v>
       </c>
       <c r="D102">
-        <v>0.03610435952775469</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04881643272869556</v>
+      </c>
+      <c r="E102">
+        <v>-0.002511797178444547</v>
+      </c>
+      <c r="F102">
+        <v>0.02811208254104201</v>
+      </c>
+      <c r="G102">
+        <v>0.05214531571615573</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
